--- a/Benchmark-Models/Hass_PONE2017/Data/model1_data3.xlsx
+++ b/Benchmark-Models/Hass_PONE2017/Data/model1_data3.xlsx
@@ -754,16 +754,16 @@
         <v>-30.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3951646273121239</v>
+        <v>0.3951539197210801</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6334833266401195</v>
+        <v>-0.633187912558835</v>
       </c>
       <c r="D2" t="n">
-        <v>0.991522078861939</v>
+        <v>0.9922273728438721</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5678737569884947</v>
+        <v>0.5678766533648026</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -777,16 +777,16 @@
         <v>0.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.40517086664948027</v>
+        <v>0.4051653051379869</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.1542170600805295</v>
+        <v>-3.1543658103185384</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.39548665494658913</v>
+        <v>-0.39558536638198755</v>
       </c>
       <c r="E3" t="n">
-        <v>0.061523609036887555</v>
+        <v>0.06115262484524223</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -800,16 +800,16 @@
         <v>1.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4055049956334156</v>
+        <v>0.4054996149740108</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.1453693338038122</v>
+        <v>-3.1454867350116062</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.39485519859562435</v>
+        <v>-0.3949510782807833</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07405651912557322</v>
+        <v>0.07378523123112135</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -823,16 +823,16 @@
         <v>5.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4068389468203301</v>
+        <v>0.40683428679411676</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.9873353798931905</v>
+        <v>-2.987172907760476</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3813346181152398</v>
+        <v>-0.38138941622588696</v>
       </c>
       <c r="E5" t="n">
-        <v>0.11936392194751241</v>
+        <v>0.11939916331273596</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -846,16 +846,16 @@
         <v>10.0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.40850064445844325</v>
+        <v>0.40849687902608106</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.7276978975362747</v>
+        <v>-2.72719696894112</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3470191819454402</v>
+        <v>-0.3469665497506345</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1672007521031854</v>
+        <v>0.16746812036429026</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -869,16 +869,16 @@
         <v>15.0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.41015600812589553</v>
+        <v>0.4101531304715005</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.5145944256823483</v>
+        <v>-2.5138817951586634</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.30289376939714535</v>
+        <v>-0.3027021092854999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.20756655669866958</v>
+        <v>0.20795546134413712</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -892,16 +892,16 @@
         <v>45.0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4199578306930983</v>
+        <v>0.41996014075849036</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.9059312740815557</v>
+        <v>-1.9051624910287883</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.056726009944758383</v>
+        <v>-0.056084773499797944</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3605073591653994</v>
+        <v>0.36065899590345224</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -915,16 +915,16 @@
         <v>60.0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4247770084107921</v>
+        <v>0.4247818262954207</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.7735619185803397</v>
+        <v>-1.773065418943956</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02409700053514932</v>
+        <v>0.02465899424724423</v>
       </c>
       <c r="E9" t="n">
-        <v>0.40528917920069685</v>
+        <v>0.40510462518895984</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -938,13 +938,13 @@
         <v>240.0</v>
       </c>
       <c r="B10" t="n">
-        <v>0.47878547585689324</v>
+        <v>0.47881657177801634</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.4033608660723624</v>
+        <v>-1.4066175054371846</v>
       </c>
       <c r="D10" t="n">
-        <v>0.29583256739893227</v>
+        <v>0.29352802812202083</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
